--- a/data/trans_dic/P2B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,92; 27,13</t>
+          <t>18,18; 26,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,69; 55,8</t>
+          <t>44,95; 56,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,3; 47,67</t>
+          <t>35,17; 47,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 23,05</t>
+          <t>15,24; 23,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,54; 32,48</t>
+          <t>21,91; 33,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,44; 63,91</t>
+          <t>50,51; 63,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,4; 58,01</t>
+          <t>45,4; 57,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,47; 26,47</t>
+          <t>18,37; 26,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 27,75</t>
+          <t>20,47; 27,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,4; 57,61</t>
+          <t>49,27; 57,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,91; 50,53</t>
+          <t>41,71; 50,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 23,66</t>
+          <t>17,7; 23,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 28,26</t>
+          <t>17,38; 28,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,45; 54,54</t>
+          <t>43,59; 55,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,92; 52,51</t>
+          <t>40,85; 53,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,74; 25,24</t>
+          <t>15,72; 24,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,12; 35,53</t>
+          <t>25,46; 35,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,92; 68,66</t>
+          <t>57,41; 69,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,52; 61,8</t>
+          <t>50,66; 61,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,37; 28,86</t>
+          <t>19,93; 28,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,46; 29,82</t>
+          <t>22,17; 30,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,43; 59,71</t>
+          <t>51,69; 59,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,69; 56,15</t>
+          <t>47,37; 55,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 25,44</t>
+          <t>18,91; 25,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,71; 26,89</t>
+          <t>19,08; 26,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,73; 55,78</t>
+          <t>46,71; 55,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,1; 47,9</t>
+          <t>37,94; 47,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,89; 32,83</t>
+          <t>22,77; 32,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,43; 37,1</t>
+          <t>22,39; 37,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,61; 60,31</t>
+          <t>46,71; 60,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,55; 52,03</t>
+          <t>36,19; 53,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,3; 29,59</t>
+          <t>18,71; 30,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,86; 28,13</t>
+          <t>21,03; 28,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,09; 55,47</t>
+          <t>48,44; 55,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>38,99; 47,14</t>
+          <t>39,13; 47,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 30,41</t>
+          <t>22,86; 30,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 24,56</t>
+          <t>19,48; 24,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,41; 57,77</t>
+          <t>51,18; 57,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,78; 42,72</t>
+          <t>36,25; 42,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,27; 29,06</t>
+          <t>22,06; 28,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,62; 29,73</t>
+          <t>22,87; 29,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,02; 64,97</t>
+          <t>57,04; 65,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,67; 57,72</t>
+          <t>49,65; 57,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 71,67</t>
+          <t>22,17; 74,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,52; 25,51</t>
+          <t>21,42; 25,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54,62; 59,84</t>
+          <t>54,77; 59,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,02; 48,57</t>
+          <t>42,87; 48,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,65; 56,91</t>
+          <t>23,37; 57,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 27,73</t>
+          <t>17,76; 27,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,77; 56,58</t>
+          <t>47,0; 56,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,02; 47,81</t>
+          <t>38,86; 47,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 25,62</t>
+          <t>17,13; 26,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,93; 29,8</t>
+          <t>21,78; 29,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,1; 60,73</t>
+          <t>53,3; 60,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,35; 49,79</t>
+          <t>42,38; 50,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,75; 30,99</t>
+          <t>18,42; 30,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,28; 27,74</t>
+          <t>21,57; 28,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,18; 58,13</t>
+          <t>52,32; 58,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41,93; 48,04</t>
+          <t>42,0; 47,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,7; 27,78</t>
+          <t>19,77; 27,58</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 23,82</t>
+          <t>11,52; 23,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,04; 55,34</t>
+          <t>39,05; 55,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,29; 45,65</t>
+          <t>29,69; 45,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,89; 30,35</t>
+          <t>8,77; 28,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,18; 27,45</t>
+          <t>22,15; 27,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,18; 47,71</t>
+          <t>41,04; 47,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,95; 41,51</t>
+          <t>35,09; 41,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,43; 37,13</t>
+          <t>30,65; 37,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,43; 26,35</t>
+          <t>21,44; 26,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,56; 47,41</t>
+          <t>41,57; 47,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,91; 41,37</t>
+          <t>35,26; 41,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,57; 34,3</t>
+          <t>27,98; 34,57</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,62</t>
+          <t>20,15; 23,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,84; 53,73</t>
+          <t>49,84; 53,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,65; 43,8</t>
+          <t>39,54; 43,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,96; 24,47</t>
+          <t>20,87; 24,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,97</t>
+          <t>24,57; 27,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,41; 56,04</t>
+          <t>52,28; 55,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,95; 48,84</t>
+          <t>45,15; 48,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,58; 46,03</t>
+          <t>25,62; 47,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,37</t>
+          <t>22,88; 25,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,66; 54,3</t>
+          <t>51,75; 54,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43,2; 45,9</t>
+          <t>43,21; 45,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,32; 37,2</t>
+          <t>24,15; 38,49</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas que requieren dedicación o cuidados especiales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>79914</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>170203</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>118735</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>66316</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67786</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>150477</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>140688</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>72164</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>147701</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>320680</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>259423</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>138480</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>65885; 97496</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>152656; 192140</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>101584; 136468</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>53615; 84059</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>54662; 84267</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>132619; 167689</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>124421; 157803</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>59633; 86211</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>125259; 168004</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>296712; 348410</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>234794; 285913</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>119703; 158323</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58739</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>174783</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>132052</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>57934</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>88592</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>189433</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>171396</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>67801</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>147331</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>364216</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>303447</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>125735</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46255; 74822</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>153427; 195199</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>115498; 150368</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>45382; 71580</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75157; 105743</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>172802; 207872</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>154156; 188409</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>55951; 80099</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>124475; 168438</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>337508; 390012</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>278053; 328062</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>107687; 144576</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99471</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>268822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>181162</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84893</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44064</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>124761</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65724</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32141</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>143536</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>393583</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>246886</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>117034</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>82863; 116943</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>244824; 292664</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>160255; 201644</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70521; 99481</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33846; 56443</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>109504; 141504</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54210; 80321</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25097; 40461</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>123155; 166083</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>367462; 424595</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>223879; 272502</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>101446; 135615</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>215647</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>523764</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>343726</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>178451</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>156930</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>402280</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>352145</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>339604</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>372578</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>926044</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>695871</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>518055</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>191592; 240749</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>491797; 554707</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>316390; 373875</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>156083; 202579</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>137569; 178917</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>375819; 430969</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>325688; 378272</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>175313; 590035</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>339444; 408481</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>887191; 964084</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>655449; 736561</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>350224; 868149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>59827</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>214332</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>207942</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>72241</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>129176</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>401120</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>304468</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>185039</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>189003</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>615451</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>512410</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>257280</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>47785; 73852</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>194690; 234121</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>186801; 229977</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>58692; 89077</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>109382; 149499</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>374767; 427275</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>279465; 330575</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>130169; 216895</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>166345; 216619</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>584627; 650333</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>478892; 546330</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>207480; 289486</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>24490</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>71746</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>56503</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18094</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>264898</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>430321</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>345573</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>196985</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>289389</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>502067</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>402076</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>215079</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16717; 34613</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>59893; 84836</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>44625; 68411</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9334; 30787</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>237677; 292863</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>400349; 461076</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>315675; 376063</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>178723; 218376</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>261136; 320927</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>469279; 536544</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>370189; 434184</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>192941; 238380</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2296</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1714</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>538090</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1423648</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1040119</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>477929</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>751447</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1698392</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1379995</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>893734</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1289537</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3122040</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2420113</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1371663</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>495698; 583275</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1367898; 1474059</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>987630; 1087944</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>439644; 517524</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>705637; 800830</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1639148; 1754837</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1328847; 1439571</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>722636; 1350532</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1219949; 1347438</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3042465; 3202261</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2350846; 2494054</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1189927; 1896268</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
